--- a/data/trans_bre/LAWTONB_2R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 22,48</t>
+          <t>-18,1; 22,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 49,58</t>
+          <t>9,59; 48,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 48,88</t>
+          <t>10,37; 48,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 17,76</t>
+          <t>-10,6; 16,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 156,93</t>
+          <t>-56,62; 160,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,26; 268,96</t>
+          <t>24,97; 244,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 347,4</t>
+          <t>29,56; 343,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 44,69</t>
+          <t>-18,16; 41,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 11,92</t>
+          <t>-15,77; 12,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 28,68</t>
+          <t>-2,27; 29,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 31,36</t>
+          <t>6,41; 30,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 34,65</t>
+          <t>13,17; 33,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 78,97</t>
+          <t>-48,22; 78,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 138,36</t>
+          <t>-6,9; 148,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,0; 317,61</t>
+          <t>24,41; 293,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,02; 266,8</t>
+          <t>47,93; 240,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 36,64</t>
+          <t>5,69; 36,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 21,96</t>
+          <t>-9,58; 22,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 12,17</t>
+          <t>-15,39; 13,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 28,01</t>
+          <t>3,74; 27,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,83; 291,69</t>
+          <t>17,75; 317,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 125,23</t>
+          <t>-27,22; 142,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 74,6</t>
+          <t>-52,31; 89,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 90,35</t>
+          <t>9,28; 93,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 31,83</t>
+          <t>0,3; 31,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 30,46</t>
+          <t>-4,15; 28,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 24,83</t>
+          <t>-5,03; 23,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 20,6</t>
+          <t>2,12; 20,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 163,07</t>
+          <t>1,05; 173,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 125,43</t>
+          <t>-9,29; 125,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 156,57</t>
+          <t>-18,29; 150,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 120,78</t>
+          <t>7,17; 116,06</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 30,06</t>
+          <t>-14,05; 28,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 43,18</t>
+          <t>-0,13; 42,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 53,16</t>
+          <t>19,4; 54,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 15,56</t>
+          <t>-10,42; 15,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 167,07</t>
+          <t>-37,13; 163,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 324,64</t>
+          <t>-2,16; 288,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,28; 954,36</t>
+          <t>88,65; 963,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 85,27</t>
+          <t>-29,22; 88,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 21,74</t>
+          <t>-16,4; 18,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 12,37</t>
+          <t>-21,17; 11,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 21,51</t>
+          <t>-15,01; 20,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 22,17</t>
+          <t>0,27; 22,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 82,49</t>
+          <t>-35,12; 68,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 51,46</t>
+          <t>-49,58; 47,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 99,39</t>
+          <t>-39,05; 88,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 65,37</t>
+          <t>1,51; 70,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 25,54</t>
+          <t>3,8; 28,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 19,83</t>
+          <t>-4,08; 20,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 29,63</t>
+          <t>5,63; 29,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 23,46</t>
+          <t>-19,78; 23,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 185,85</t>
+          <t>13,25; 213,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 100,36</t>
+          <t>-11,61; 104,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,86; 167,66</t>
+          <t>15,68; 158,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-79,36; 141,98</t>
+          <t>-78,86; 139,5</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 11,39</t>
+          <t>-12,08; 10,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 24,29</t>
+          <t>1,94; 22,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 24,54</t>
+          <t>3,29; 24,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,21; 28,59</t>
+          <t>14,96; 28,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 50,37</t>
+          <t>-32,14; 41,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,23; 216,31</t>
+          <t>8,47; 195,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,59; 182,56</t>
+          <t>13,96; 174,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,59; 293,57</t>
+          <t>81,83; 275,94</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,83; 13,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,43</t>
+          <t>6,38; 17,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,09</t>
+          <t>9,65; 19,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 17,17</t>
+          <t>-7,8; 17,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>9,68; 57,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>21,23; 74,18</t>
+          <t>20,33; 71,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>39,71; 102,58</t>
+          <t>40,09; 104,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 68,81</t>
+          <t>-29,68; 71,28</t>
         </is>
       </c>
     </row>
